--- a/trialorder/final_acb_memory_test_practice.xlsx
+++ b/trialorder/final_acb_memory_test_practice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandradecker/Dropbox/Projects/reactivate/trialorder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81472DF2-9C22-8143-B773-7B0C54BB5F6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C582EC4-ED12-454F-A103-E2B23D5CAFE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="15660" xr2:uid="{06C2AADD-7E13-904E-805F-CF912D94E5F0}"/>
+    <workbookView xWindow="-28520" yWindow="460" windowWidth="27240" windowHeight="15660" xr2:uid="{06C2AADD-7E13-904E-805F-CF912D94E5F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Image</t>
   </si>
@@ -59,9 +59,6 @@
     <t>images/earrings_dangling.jpg</t>
   </si>
   <si>
-    <t>images/westminster_abbey_a.jpg</t>
-  </si>
-  <si>
     <t>images/ray_romano.jpg</t>
   </si>
   <si>
@@ -69,18 +66,6 @@
   </si>
   <si>
     <t>images/electricoutlet.png</t>
-  </si>
-  <si>
-    <t>images/wrigley_field_b.jpg</t>
-  </si>
-  <si>
-    <t>images/beetle.png</t>
-  </si>
-  <si>
-    <t>images/john_stamos.jpg</t>
-  </si>
-  <si>
-    <t>images/bird_parrot.png</t>
   </si>
 </sst>
 </file>
@@ -432,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B6E982F-C9E3-3545-904C-A113C241DA4A}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -495,31 +480,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trialorder/final_acb_memory_test_practice.xlsx
+++ b/trialorder/final_acb_memory_test_practice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandradecker/Dropbox/Projects/reactivate/trialorder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C582EC4-ED12-454F-A103-E2B23D5CAFE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1603615-F7A1-FF48-A76A-6AF82D664CA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28520" yWindow="460" windowWidth="27240" windowHeight="15660" xr2:uid="{06C2AADD-7E13-904E-805F-CF912D94E5F0}"/>
   </bookViews>
@@ -420,7 +420,7 @@
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -437,47 +437,47 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
